--- a/biology/Mycologie/Liste_de_champignons_comestibles/Liste_de_champignons_comestibles.xlsx
+++ b/biology/Mycologie/Liste_de_champignons_comestibles/Liste_de_champignons_comestibles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste de champignons comestibles.
 À strictement parler, un champignon comestible est la fructification (sporophore) des macromycètes qui se prêtent à l'alimentation humaine. Le terme est mis en opposition avec celui de champignon toxique, qui désigne les espèces contenant une mycotoxine et pouvant provoquer une intoxication alimentaire. L'intoxication par consommation de champignon peut prendre de nombreuses formes, peut survenir à différentes échelles de temps après ingestion et peut avoir des conséquences très diverses : du léger malaise à l'empoisonnement mortel.
@@ -520,10 +532,12 @@
           <t>Mycotoxicologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« L'évolution des connaissances mycotoxicologiques doit amener à prendre de plus en plus de précautions avec la consommation des champignons[1] ». Peu de champignons ont fait l'objet d'étude toxicologique à grande échelle et il est toujours possible qu'une espèce réputée comestible contienne en réalité des toxines encore inconnues. Outre les ingestions accidentelles (consommation de champignons mortels mal connus ou de champignons comestibles accompagnés par un toxique qui s'est glissé dans le panier par mégarde), de nombreuses intoxications apparaissent pour différentes raisons : toxicité passée inaperçue pendant des années (paxille enroulé, gyromitres, tricholome équestre…), toxicité croisée avec d'autres aliments, consommation à l'état cru ou surconsommation (variable selon le volume et la fréquence de consommation). La comestibilité (et donc la toxicité) d'une espèce peut varier en fonction de la variété, du substrat, de la localisation géographique (différente selon les régions et les continents), de l'âge, de la saison de récolte ou encore au fait qu'il soit parasité. Des substances nocives peuvent aussi apparaître plus tard, après la cueillette, lors des traitements des champignons (transport, conservation et préparation culinaire, de nombreuses espèces étant toxiques crues ou mal cuites). De nombreux autres facteurs sont à prendre en compte : « des molécules toxiques, telles les hémolysines, peuvent disparaître lors de ces traitements. La toxicité du champignon peut aussi ne se révéler qu'associée à certains aliments comme l'alcool. Ou elle peut n'apparaître que chez certains sujets, intolérants à une ou plusieurs substances, allergiques, ou simplement paniqués à l'idée d'avoir peut-être consommé une espèce mortelle. L'intoxication peut aussi être en lien avec la pollution qui environne le champignon[2]. Enfin, les champignons pourraient être toxiques de manière silencieuse, c'est-à-dire que la consommation d'un plat ne produira aucune réaction, mais des consommations répétées pourraient être nocives pour l'organisme. Les risques seraient alors à long terme, et on pense à ce sujet à la contamination métallique ou radioactive, et au potentiel mutagène ou cancérigène de certaines substances fongiques[3] ».
-Les noms vernaculaires associés aux espèces de champignons sont une source très importante, et parfois dangereuse, de confusion lors de leur cueillette et leur consommation[4].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« L'évolution des connaissances mycotoxicologiques doit amener à prendre de plus en plus de précautions avec la consommation des champignons ». Peu de champignons ont fait l'objet d'étude toxicologique à grande échelle et il est toujours possible qu'une espèce réputée comestible contienne en réalité des toxines encore inconnues. Outre les ingestions accidentelles (consommation de champignons mortels mal connus ou de champignons comestibles accompagnés par un toxique qui s'est glissé dans le panier par mégarde), de nombreuses intoxications apparaissent pour différentes raisons : toxicité passée inaperçue pendant des années (paxille enroulé, gyromitres, tricholome équestre…), toxicité croisée avec d'autres aliments, consommation à l'état cru ou surconsommation (variable selon le volume et la fréquence de consommation). La comestibilité (et donc la toxicité) d'une espèce peut varier en fonction de la variété, du substrat, de la localisation géographique (différente selon les régions et les continents), de l'âge, de la saison de récolte ou encore au fait qu'il soit parasité. Des substances nocives peuvent aussi apparaître plus tard, après la cueillette, lors des traitements des champignons (transport, conservation et préparation culinaire, de nombreuses espèces étant toxiques crues ou mal cuites). De nombreux autres facteurs sont à prendre en compte : « des molécules toxiques, telles les hémolysines, peuvent disparaître lors de ces traitements. La toxicité du champignon peut aussi ne se révéler qu'associée à certains aliments comme l'alcool. Ou elle peut n'apparaître que chez certains sujets, intolérants à une ou plusieurs substances, allergiques, ou simplement paniqués à l'idée d'avoir peut-être consommé une espèce mortelle. L'intoxication peut aussi être en lien avec la pollution qui environne le champignon. Enfin, les champignons pourraient être toxiques de manière silencieuse, c'est-à-dire que la consommation d'un plat ne produira aucune réaction, mais des consommations répétées pourraient être nocives pour l'organisme. Les risques seraient alors à long terme, et on pense à ce sujet à la contamination métallique ou radioactive, et au potentiel mutagène ou cancérigène de certaines substances fongiques ».
+Les noms vernaculaires associés aux espèces de champignons sont une source très importante, et parfois dangereuse, de confusion lors de leur cueillette et leur consommation.  
 Dans ce contexte, la consommation traditionnelle ou historique de certains champignons ne constitue en rien une garantie de leur innocuité. Il faut enfin souligner que l'identification exacte d'un champignon demande une certaine expertise scientifique et que le risque de confusion entre espèces comestibles et toxiques (voire mortelles) est important.
 </t>
         </is>
@@ -553,11 +567,48 @@
           <t>Listes nationales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs pays ont établi, sous différentes formes, des listes de champignons comestibles à potentiel commercial, c'est-à-dire susceptibles d'être rencontrés dans la petite ou la grande distribution ou dans la restauration. Les listes disponibles dans certains pays francophones sont présentées ci-dessous.
-France
-En France, l'Agence nationale de sécurité sanitaire de l'alimentation, de l'environnement et du travail (ANSES) a été saisie en 2015 par la Direction générale de la Concurrence, de la Consommation et de la Répression des fraudes (DGCCRF) pour une demande d’expertise liée à un projet de décret relatif à la mise sur le marché des champignons et d’arrêté relatif aux variétés comestibles. L'avis de l'ANSES a été publié le 4 avril 2017 et contient une liste de champignons de culture et sauvages comestibles comportant 146 espèces. Des dénominations commerciales y sont également suggérées pour différents groupes de champignons[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Listes nationales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En France, l'Agence nationale de sécurité sanitaire de l'alimentation, de l'environnement et du travail (ANSES) a été saisie en 2015 par la Direction générale de la Concurrence, de la Consommation et de la Répression des fraudes (DGCCRF) pour une demande d’expertise liée à un projet de décret relatif à la mise sur le marché des champignons et d’arrêté relatif aux variétés comestibles. L'avis de l'ANSES a été publié le 4 avril 2017 et contient une liste de champignons de culture et sauvages comestibles comportant 146 espèces. Des dénominations commerciales y sont également suggérées pour différents groupes de champignons.
 Dénomination « Agaric »
 Agaricus arvensis
 Agaricus bitorquis
@@ -722,13 +773,47 @@
 Suillus luteus
 Volvariella volvacea
 Volvopluteus gloiocephalus
-Les truffes ne sont pas reprises dans cette liste, car elles font l'objet d'un décret séparé, qui mentionne trois espèces[6] :
+Les truffes ne sont pas reprises dans cette liste, car elles font l'objet d'un décret séparé, qui mentionne trois espèces :
 Dénomination « Truffe »
 Tuber brumale
 Tuber magnatum
-Tuber melanosporum
-Suisse
-En Suisse, le Département fédéral de l'intérieur (DFI) a arrêté une « ordonnance sur les denrées alimentaires d’origine végétale, les champignons et le sel comestible » le 16 décembre 2016. Elle contient une liste des champignons admis comme champignons comestibles (liste positive) qui comprend 115 espèces[7].
+Tuber melanosporum</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Listes nationales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse, le Département fédéral de l'intérieur (DFI) a arrêté une « ordonnance sur les denrées alimentaires d’origine végétale, les champignons et le sel comestible » le 16 décembre 2016. Elle contient une liste des champignons admis comme champignons comestibles (liste positive) qui comprend 115 espèces.
 Agaricus arvensis
 Agaricus augustus
 Agaricus bisporus
@@ -844,8 +929,43 @@
 Volvariella volvacea
 Xerocomellus chrysenteron
 Xerocomus subtomentosus
-Belgique
-En Belgique, l'Arrêté royal du 29 août 1997 relatif « à la fabrication et au commerce de denrées alimentaires composées ou contenant des plantes ou préparations de plantes » contient une liste de champignons comestibles. Divisée en deux parties, elle comprend 45 espèces dites cultivées et 50 espèces sauvages qui peuvent être mises dans le commerce pour autant que la réglementation pour la conservation des espèces menacées le permette. Il est interdit de fabriquer et de mettre dans le commerce des denrées alimentaires contenant des champignons qui ne sont pas repris dans cette liste[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Listes nationales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, l'Arrêté royal du 29 août 1997 relatif « à la fabrication et au commerce de denrées alimentaires composées ou contenant des plantes ou préparations de plantes » contient une liste de champignons comestibles. Divisée en deux parties, elle comprend 45 espèces dites cultivées et 50 espèces sauvages qui peuvent être mises dans le commerce pour autant que la réglementation pour la conservation des espèces menacées le permette. Il est interdit de fabriquer et de mettre dans le commerce des denrées alimentaires contenant des champignons qui ne sont pas repris dans cette liste.
 Champignons comestibles cultivés
 (à compléter)
 Champignons comestibles sauvages
@@ -899,8 +1019,43 @@
 Tuber melanosporum
 Tuber uncinatum
 Wolfiporia extensa
-Québec
-Au Québec, la Filière mycologique de la Mauricie, en collaboration avec de multiples partenaires du secteur mycologique, a émis en 2018 un guide de la « réglementation touchant le secteur des champignons forestiers et de spécialité ». Ce document établit un système de qualité, de salubrité, de sécurité et de traçabilité (QSST) destiné à l’industrie mycologique. Le guide contient une liste des principaux champignons sauvages comestibles à potentiel commercial du Québec, reprenant 184 espèces[9].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Listes nationales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Québec, la Filière mycologique de la Mauricie, en collaboration avec de multiples partenaires du secteur mycologique, a émis en 2018 un guide de la « réglementation touchant le secteur des champignons forestiers et de spécialité ». Ce document établit un système de qualité, de salubrité, de sécurité et de traçabilité (QSST) destiné à l’industrie mycologique. Le guide contient une liste des principaux champignons sauvages comestibles à potentiel commercial du Québec, reprenant 184 espèces.
 Agaricus abruptibulbus
 Agaricus arvensis
 Agaricus augustus
@@ -1089,50 +1244,281 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Liste_de_champignons_comestibles</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Tableaux synoptiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clé des tableaux
-Principales espèces comestibles cultivées
-Comestibilité citée par une autorité sanitaire nationale
-Principales espèces
-Le tableau ci-dessous reprend les champignons comestibles cités dans au moins deux des listes nationales présentées plus-haut, et pour lesquels aucun rapport de toxicité potentielle n'a été trouvé dans la littérature. Il s'agit des espèces les plus connues en Europe occidentale et en Amérique du Nord, et qui sont reprises dans la plupart des guides de terrain en français. La comestibilité de certaines espèces reste néanmoins assujettie à l'observation de précautions, et le risque de confusion avec des espèces toxiques doit être pris en compte.
-Autres espèces citées en Europe occidentale
-Le tableau ci-dessous reprend les champignons comestibles cités dans une seule des listes nationales (France, Suisse ou Belgique) présentées plus-haut. Il s'agit pour la plupart d'espèces moins connues, moins communes ou moins appréciées, mais néanmoins susceptibles de présenter un intérêt commercial.
-Autres espèces citées au Québec
-Le tableau ci-dessous reprend les champignons comestibles seulement cités par la liste québéquoise présentée plus-haut. Plusieurs de ces espèces ne poussent qu'en Amérique du Nord et ne sont pas connues en Europe.
-Comestibilité seulement citée dans la littérature mycologique
-Par la Société mycologique de France
-Le tableau ci-dessous reprend les champignons signalés comme comestibles par la Société mycologique de France qui n'ont pas été inclus dans les tableaux présentés plus haut[32].
-Par les Sociétés mycologiques d'autres pays
-Le tableau ci-dessous reprend les champignons signalés comme comestibles par des Sociétés mycologiques d'autres pays que la France.
-Comestibilité douteuse ou controversée
-Le tableau ci-dessous présente des espèces citées comme comestibles par une ou plusieurs sources, mais dont l'innocuité est mise en question, sans pour autant que des intoxications aient été rapportées.
-Toxicité reconnue
-Le tableau ci-dessous présente des espèces citées comme comestibles par une ou plusieurs sources, mais pour lesquelles des cas d'intoxications ont été rapportés.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comestibilité citée par une autorité sanitaire nationale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous reprend les champignons comestibles cités dans au moins deux des listes nationales présentées plus-haut, et pour lesquels aucun rapport de toxicité potentielle n'a été trouvé dans la littérature. Il s'agit des espèces les plus connues en Europe occidentale et en Amérique du Nord, et qui sont reprises dans la plupart des guides de terrain en français. La comestibilité de certaines espèces reste néanmoins assujettie à l'observation de précautions, et le risque de confusion avec des espèces toxiques doit être pris en compte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tableaux synoptiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Comestibilité citée par une autorité sanitaire nationale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres espèces citées en Europe occidentale</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous reprend les champignons comestibles cités dans une seule des listes nationales (France, Suisse ou Belgique) présentées plus-haut. Il s'agit pour la plupart d'espèces moins connues, moins communes ou moins appréciées, mais néanmoins susceptibles de présenter un intérêt commercial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tableaux synoptiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Comestibilité citée par une autorité sanitaire nationale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Autres espèces citées au Québec</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous reprend les champignons comestibles seulement cités par la liste québéquoise présentée plus-haut. Plusieurs de ces espèces ne poussent qu'en Amérique du Nord et ne sont pas connues en Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tableaux synoptiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Comestibilité seulement citée dans la littérature mycologique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Par la Société mycologique de France</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous reprend les champignons signalés comme comestibles par la Société mycologique de France qui n'ont pas été inclus dans les tableaux présentés plus haut.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tableaux synoptiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Comestibilité seulement citée dans la littérature mycologique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Par les Sociétés mycologiques d'autres pays</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous reprend les champignons signalés comme comestibles par des Sociétés mycologiques d'autres pays que la France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tableaux synoptiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Comestibilité douteuse ou controversée</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous présente des espèces citées comme comestibles par une ou plusieurs sources, mais dont l'innocuité est mise en question, sans pour autant que des intoxications aient été rapportées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_comestibles</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tableaux synoptiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Toxicité reconnue</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous présente des espèces citées comme comestibles par une ou plusieurs sources, mais pour lesquelles des cas d'intoxications ont été rapportés.
 </t>
         </is>
       </c>
